--- a/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="268">
   <si>
     <t>预期值信息类型</t>
   </si>
@@ -1043,10 +1043,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1159,10 +1155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>套件类型一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1223,10 +1215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1284,10 +1272,6 @@
   </si>
   <si>
     <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1992,6 +1976,9 @@
   <si>
     <t>模块唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2471,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
@@ -2500,25 +2487,25 @@
     <row r="1" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1">
@@ -2601,33 +2588,33 @@
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -2653,106 +2640,106 @@
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2783,22 +2770,22 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1">
@@ -2806,19 +2793,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>12</v>
@@ -2829,13 +2816,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
@@ -2852,10 +2839,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
@@ -2872,30 +2859,30 @@
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2918,94 +2905,94 @@
     </row>
     <row r="7" spans="1:7" ht="47.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3007,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -3036,36 +3023,36 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>18</v>
@@ -3074,30 +3061,30 @@
         <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="37.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37.5" customHeight="1">
@@ -3111,13 +3098,13 @@
         <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>31</v>
@@ -3125,30 +3112,30 @@
     </row>
     <row r="5" spans="1:7" ht="37.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -3171,94 +3158,94 @@
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3291,28 +3278,28 @@
     <row r="1" spans="1:9" s="4" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1">
@@ -3326,51 +3313,51 @@
         <v>18</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1">
@@ -3378,10 +3365,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
@@ -3390,13 +3377,13 @@
         <v>31</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>31</v>
@@ -3404,36 +3391,36 @@
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -3451,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -3462,13 +3449,13 @@
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -3477,103 +3464,103 @@
         <v>13</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3575,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -3604,42 +3591,42 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>12</v>
@@ -3650,22 +3637,22 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1">
@@ -3673,7 +3660,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -3682,41 +3669,41 @@
         <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -3739,94 +3726,94 @@
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3828,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3856,329 +3843,329 @@
     <row r="1" spans="1:21" ht="127.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="O2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="T2" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="K3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="Q3" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="45" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="L5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="45" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -4243,262 +4230,262 @@
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="J7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="S7" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4512,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>
@@ -4539,79 +4526,79 @@
   <sheetData>
     <row r="1" spans="1:34" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -4629,13 +4616,13 @@
         <v>2</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>3</v>
@@ -4643,89 +4630,89 @@
     </row>
     <row r="2" spans="1:34" s="6" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>5</v>
@@ -4734,26 +4721,26 @@
         <v>0</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="5"/>
     </row>
     <row r="3" spans="1:34" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -4765,95 +4752,95 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Y3" s="10"/>
       <c r="Z3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AE3" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="105" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -4865,49 +4852,49 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>9</v>
@@ -4929,101 +4916,101 @@
         <v>5</v>
       </c>
       <c r="AE4" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="105" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>5</v>
@@ -5032,98 +5019,98 @@
         <v>0</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="105" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>5</v>
@@ -5132,31 +5119,31 @@
         <v>1</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="105" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -5171,88 +5158,88 @@
         <v>4500</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AE7" s="5">
         <v>0</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="5"/>
     </row>
     <row r="8" spans="1:34" ht="105" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -5279,76 +5266,76 @@
         <v>3200</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="10"/>
     </row>
     <row r="9" spans="1:34" ht="105" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -5363,153 +5350,153 @@
         <v>5000</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="1:34" ht="105" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="R10" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>5</v>
@@ -5518,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="11"/>

--- a/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具" sheetId="4" r:id="rId1"/>
@@ -3259,7 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4499,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>

--- a/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试用例初始化.xlsx
@@ -3260,7 +3260,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1"/>
